--- a/docs/mcode/shr-core-StudyArm-extension.xlsx
+++ b/docs/mcode/shr-core-StudyArm-extension.xlsx
@@ -240,7 +240,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/StudyArmTypeVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/StudyArmTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -442,7 +442,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.38671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>38</v>
